--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320074.8015362157</v>
+        <v>320074.8015362156</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2995243.613506389</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4812058.02286789</v>
+        <v>4812058.022867889</v>
       </c>
     </row>
     <row r="11">
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.61706312961832</v>
+      </c>
+      <c r="F8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D8" t="n">
-        <v>12.57565326968602</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>25.62029119463083</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="H12" t="n">
         <v>25.62029119463083</v>
@@ -1470,7 +1470,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>25.62029119463083</v>
@@ -1816,7 +1816,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>22.56635248423083</v>
+        <v>19.8449117491243</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1932,64 +1932,64 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G18" t="n">
+      <c r="U18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2017,58 +2017,58 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="R19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="20">
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.33690566337831</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>121.9333552767668</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.8474164526336</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>101.4502042303408</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>111.7431919722342</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>58.46192485583209</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,61 +3041,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>196.0929612559941</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>142.9833274914823</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>32.80686198889459</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="35">
@@ -3266,61 +3266,61 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="U35" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,28 +3345,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>6.815205755865338</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>88.59797937863898</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367367</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="H38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.6174592896822</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.26513104358013</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>187.9840913941556</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>190.9324654410926</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>50.56615741463719</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>213.4242636173429</v>
@@ -3882,10 +3882,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>201.243626316677</v>
       </c>
     </row>
     <row r="43">
@@ -3895,58 +3895,58 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>40.631385380739</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>27.92870531034908</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="F8" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="G8" t="n">
-        <v>27.92870531034908</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>27.92870531034908</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M8" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
         <v>77.1170764958388</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
         <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
         <v>77.1170764958388</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>27.41371157825499</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M10" t="n">
-        <v>52.77779986093951</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N10" t="n">
         <v>78.14188814362404</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F11" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I11" t="n">
         <v>2.049623295570466</v>
@@ -5042,16 +5042,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
         <v>102.4811647785233</v>
@@ -5063,28 +5063,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>53.80778732512771</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F12" t="n">
-        <v>79.68686933990632</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G12" t="n">
-        <v>53.80778732512771</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>27.92870531034908</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
         <v>2.049623295570466</v>
@@ -5124,46 +5124,46 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M12" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="M12" t="n">
-        <v>52.77779986093951</v>
-      </c>
       <c r="N12" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="13">
@@ -5209,7 +5209,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5279,16 +5279,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L14" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
         <v>102.4811647785233</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>53.80778732512771</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
         <v>2.049623295570466</v>
@@ -5358,13 +5358,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N15" t="n">
         <v>26.38889993046976</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5437,31 +5437,31 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570477</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306218</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.6020827637447</v>
+        <v>73.85315272828356</v>
       </c>
       <c r="R16" t="n">
-        <v>50.72300074896609</v>
+        <v>47.97407071350494</v>
       </c>
       <c r="S16" t="n">
-        <v>24.84391873418747</v>
+        <v>22.09498869872633</v>
       </c>
       <c r="T16" t="n">
         <v>2.049623295570466</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F17" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G17" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H17" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5516,13 +5516,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
         <v>83.04597603355158</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>44.53106090472204</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T17" t="n">
-        <v>16.66234852056432</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F18" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H18" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M18" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
+        <v>56.83545203625125</v>
+      </c>
+      <c r="O18" t="n">
+        <v>56.83545203625125</v>
+      </c>
+      <c r="P18" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="O18" t="n">
-        <v>110.3601010412646</v>
-      </c>
-      <c r="P18" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
@@ -5619,25 +5619,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U18" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V18" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W18" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X18" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.75142891054807</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5795,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>55.72911986742098</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.4461484402802</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.0090629388052</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.6614854603483</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6169,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,10 +6254,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
         <v>749.627473042513</v>
@@ -6269,7 +6269,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.1447485139397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>521.1447485139397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>521.1447485139397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6506,7 +6506,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.8525979295682</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C30" t="n">
-        <v>669.8525979295682</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>520.918188268317</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>361.6807332628614</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>905.0047061613109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>905.0047061613109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>905.0047061613109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>669.8525979295682</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>669.8525979295682</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>669.8525979295682</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y30" t="n">
-        <v>669.8525979295682</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6658,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>432.8749126823416</v>
+        <v>426.43660147347</v>
       </c>
       <c r="C32" t="n">
-        <v>432.8749126823416</v>
+        <v>426.43660147347</v>
       </c>
       <c r="D32" t="n">
-        <v>432.8749126823416</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E32" t="n">
-        <v>432.8749126823416</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F32" t="n">
-        <v>432.8749126823416</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G32" t="n">
-        <v>215.3052180530201</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>215.3052180530201</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
         <v>17.23151981464226</v>
@@ -6701,10 +6701,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
         <v>416.8664630901746</v>
@@ -6725,25 +6725,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>650.444607311663</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>432.8749126823416</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>432.8749126823416</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>432.8749126823416</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>432.8749126823416</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>432.8749126823416</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>432.8749126823416</v>
+        <v>644.0062961027915</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>161.6591233413921</v>
+        <v>50.36976424786911</v>
       </c>
       <c r="C33" t="n">
-        <v>161.6591233413921</v>
+        <v>50.36976424786911</v>
       </c>
       <c r="D33" t="n">
-        <v>161.6591233413921</v>
+        <v>50.36976424786911</v>
       </c>
       <c r="E33" t="n">
-        <v>161.6591233413921</v>
+        <v>50.36976424786911</v>
       </c>
       <c r="F33" t="n">
-        <v>17.23151981464226</v>
+        <v>50.36976424786911</v>
       </c>
       <c r="G33" t="n">
         <v>17.23151981464226</v>
@@ -6780,19 +6780,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>569.0691952848756</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N33" t="n">
-        <v>569.0691952848756</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O33" t="n">
-        <v>782.3092529910735</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
         <v>861.5759907321129</v>
@@ -6801,28 +6801,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>586.9891167356675</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>586.9891167356675</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>369.419422106346</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>369.419422106346</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W33" t="n">
-        <v>369.419422106346</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X33" t="n">
-        <v>369.419422106346</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="Y33" t="n">
-        <v>161.6591233413921</v>
+        <v>218.5851012679371</v>
       </c>
     </row>
     <row r="34">
@@ -6874,31 +6874,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>858.8270606966518</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>771.7946937757483</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
         <v>727.0437002418422</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C35" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E35" t="n">
         <v>234.8012144439637</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23151981464226</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G35" t="n">
         <v>17.23151981464226</v>
@@ -6938,10 +6938,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
         <v>416.8664630901746</v>
@@ -6956,31 +6956,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>851.4843753638859</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U35" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V35" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="W35" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="X35" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>592.1911242649305</v>
+        <v>485.6003549470909</v>
       </c>
       <c r="C36" t="n">
-        <v>585.3070780468847</v>
+        <v>311.1473256659639</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3726683856335</v>
+        <v>311.1473256659639</v>
       </c>
       <c r="E36" t="n">
-        <v>277.135213380178</v>
+        <v>311.1473256659639</v>
       </c>
       <c r="F36" t="n">
-        <v>130.6006554070629</v>
+        <v>311.1473256659639</v>
       </c>
       <c r="G36" t="n">
-        <v>130.6006554070629</v>
+        <v>221.6544172026922</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I36" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>355.8291375786776</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M36" t="n">
-        <v>569.0691952848756</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N36" t="n">
-        <v>678.932513118762</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>678.932513118762</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y36" t="n">
-        <v>760.4064612849986</v>
+        <v>653.815691967159</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="F37" t="n">
         <v>17.23151981464226</v>
@@ -7114,31 +7114,31 @@
         <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.73144338400959</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.8012144439637</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="C38" t="n">
-        <v>234.8012144439637</v>
+        <v>426.43660147347</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F38" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
         <v>17.23151981464226</v>
@@ -7211,13 +7211,13 @@
         <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>669.9406037026066</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X38" t="n">
-        <v>669.9406037026066</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y38" t="n">
-        <v>452.3709090732851</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>273.6043644414895</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>273.6043644414895</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>124.6699547802382</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>124.6699547802382</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>124.6699547802382</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>124.6699547802382</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>17.23151981464226</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>230.4715775208402</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="N39" t="n">
-        <v>443.7116352270382</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>827.9748482638502</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>654.557503714519</v>
       </c>
       <c r="T39" t="n">
-        <v>659.389396090879</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U39" t="n">
-        <v>659.389396090879</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V39" t="n">
-        <v>659.389396090879</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W39" t="n">
-        <v>441.8197014615575</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X39" t="n">
-        <v>441.8197014615575</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y39" t="n">
-        <v>441.8197014615575</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>660.8359782662478</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>660.8359782662478</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>660.8359782662478</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>660.8359782662478</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="F41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7448,13 +7448,13 @@
         <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>853.6970544693717</v>
+        <v>422.536925949487</v>
       </c>
       <c r="Y41" t="n">
-        <v>660.8359782662478</v>
+        <v>206.9568616895446</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>214.6854257439542</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C42" t="n">
-        <v>214.6854257439542</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D42" t="n">
-        <v>214.6854257439542</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>163.6084990625025</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
         <v>17.07394108938743</v>
@@ -7491,22 +7491,22 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>248.4735348936818</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>248.4735348936818</v>
+        <v>361.7224539937033</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7635558748512</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7518,22 +7518,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>435.9303955681954</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>435.9303955681954</v>
       </c>
       <c r="W42" t="n">
-        <v>422.536925949487</v>
+        <v>220.3503313082531</v>
       </c>
       <c r="X42" t="n">
-        <v>214.6854257439542</v>
+        <v>220.3503313082531</v>
       </c>
       <c r="Y42" t="n">
-        <v>214.6854257439542</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="43">
@@ -7594,25 +7594,25 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M8" t="n">
         <v>255.9665244219036</v>
@@ -8465,7 +8465,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>256.8532869499004</v>
@@ -8538,16 +8538,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>165.6020652806523</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8772,22 +8772,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
@@ -8936,10 +8936,10 @@
         <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>253.9981915106306</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,7 +9015,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
         <v>168.2165356390753</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>353.9483774629024</v>
@@ -10437,13 +10437,13 @@
         <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>153.5445607555817</v>
       </c>
       <c r="O33" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>214.041819273966</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>353.9483774629024</v>
+        <v>306.0557124853233</v>
       </c>
       <c r="M36" t="n">
         <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>242.3147604003903</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>242.3147604003904</v>
       </c>
       <c r="O39" t="n">
-        <v>310.0975771498935</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>245.6675451803358</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>276.8395813191359</v>
       </c>
       <c r="N42" t="n">
         <v>344.7659757006762</v>
@@ -11154,10 +11154,10 @@
         <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>339.6526005763767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>342.1073883509969</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>371.3133069426435</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
         <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>187.9095370861751</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,16 +23303,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3027654569188</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,10 +23346,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7232259685798</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H12" t="n">
         <v>86.61515304186563</v>
@@ -23358,7 +23358,7 @@
         <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3027654569188</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23577,16 +23577,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>114.7771646789798</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>60.54175205706355</v>
@@ -23704,7 +23704,7 @@
         <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>205.3792369440507</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>237.0350578730948</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>61.80660759109894</v>
+        <v>65.84192992838649</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>147.3818768545514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="19">
@@ -23905,7 +23905,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.9946280917787</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="20">
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>154.3469453318533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24048,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>76.59711297036429</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>54.05972718803677</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>50.77514371154891</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>30.38802778386287</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,7 +24345,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,13 +24494,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,16 +24528,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>56.19487622506016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>54.78999167763315</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>113.2212462480057</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>225.5837043559239</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>14.38292831441186</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,10 +24965,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,10 +25005,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>2.085884901901551</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>104.5366551743161</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>185.5445578263411</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>33.37681640492011</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,28 +25233,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8932932324504</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>48.74553778457165</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,10 +25391,10 @@
         <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>225.5837043559239</v>
       </c>
       <c r="H38" t="n">
-        <v>124.0808044327389</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>159.5219355582018</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>6.617984946814303</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>66.89270310906301</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25594,13 +25594,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>218.8919543475558</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>195.305473214961</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25713,10 +25713,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>107.0789230407638</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>12.5171184636319</v>
@@ -25770,10 +25770,10 @@
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>4.439069460627394</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351669.2246312142</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488291.6158105898</v>
+        <v>488291.6158105897</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486869.4228264389</v>
+        <v>486869.422826439</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
@@ -26320,13 +26320,13 @@
         <v>51644.51686548872</v>
       </c>
       <c r="E2" t="n">
-        <v>51644.51686548874</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="F2" t="n">
         <v>51644.51686548873</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.62330624469</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="H2" t="n">
         <v>74772.30263909957</v>
@@ -26335,22 +26335,22 @@
         <v>74772.30263909959</v>
       </c>
       <c r="J2" t="n">
-        <v>74772.30263909961</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
         <v>72043.02528352961</v>
       </c>
       <c r="M2" t="n">
-        <v>72043.02528352957</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="N2" t="n">
-        <v>72043.02528352961</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="O2" t="n">
-        <v>71833.1935317696</v>
+        <v>71833.19353176962</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915088</v>
@@ -26424,7 +26424,7 @@
         <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
         <v>22.21667432804714</v>
@@ -26436,7 +26436,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26528,13 +26528,13 @@
         <v>8478.555432738947</v>
       </c>
       <c r="E6" t="n">
-        <v>50064.58648652714</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="F6" t="n">
         <v>50064.58648652713</v>
       </c>
       <c r="G6" t="n">
-        <v>49644.41852217519</v>
+        <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
         <v>2355.314235302245</v>
@@ -26543,22 +26543,22 @@
         <v>59939.10137763395</v>
       </c>
       <c r="J6" t="n">
-        <v>59939.10137763397</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="K6" t="n">
-        <v>59939.10137763394</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="L6" t="n">
+        <v>58786.10234497165</v>
+      </c>
+      <c r="M6" t="n">
         <v>58786.10234497164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>58786.1023449716</v>
       </c>
       <c r="N6" t="n">
         <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
-        <v>58697.4577056471</v>
+        <v>58697.45770564711</v>
       </c>
       <c r="P6" t="n">
         <v>48378.33248915088</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="L8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>25.62029119463083</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>25.62029119463083</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N9" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>25.62029119463083</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M10" t="n">
         <v>25.62029119463083</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="O12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="O12" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
@@ -35656,10 +35656,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>25.62029119463083</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>215.3939976830282</v>
@@ -37157,13 +37157,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="O33" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>80.06741185963574</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>215.3939976830282</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="M36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>110.973048317057</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>110.973048317057</v>
+      </c>
+      <c r="O39" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N39" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="O39" t="n">
-        <v>167.5013327054491</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>107.1131654004616</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>134.7055473971176</v>
       </c>
       <c r="N42" t="n">
         <v>213.4242636173429</v>
@@ -37874,10 +37874,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201732.1177101069</v>
+        <v>304239.2234927444</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>2755553.591652931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>20120750.05383735</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5201920.383830386</v>
+        <v>4890972.686918096</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.88091821707973</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.87161743162454</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.87161743162455</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>44.13217237922859</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
     </row>
     <row r="15">
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>29.14270706479791</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>132.876626399942</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>73.91757875077093</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.87894234389536</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>90.38893773807641</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>7.488380325438619</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3085,7 +3085,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>15.42317222553951</v>
       </c>
       <c r="T33" t="n">
-        <v>63.14223173826442</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>79.25929196425973</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X36" t="n">
-        <v>63.14223173826446</v>
+        <v>58.21441316809607</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>95.2079972121021</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>21.34678146293116</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>129.7397501192906</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>185.9894214815035</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>146.175361316945</v>
+        <v>168.9792021308683</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>49.60264164716979</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>48.52777127654362</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>121.8591222504766</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>77.28117035226589</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X2" t="n">
-        <v>32.70321845405519</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T3" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W3" t="n">
-        <v>42.79483382228227</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X3" t="n">
-        <v>42.79483382228227</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.79483382228227</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>93.48491238239833</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>48.90696048418764</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T4" t="n">
-        <v>48.90696048418764</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U4" t="n">
-        <v>4.329008585976936</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V4" t="n">
-        <v>4.329008585976936</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.8591222504766</v>
+        <v>40.631385380739</v>
       </c>
       <c r="C5" t="n">
-        <v>121.8591222504766</v>
+        <v>40.631385380739</v>
       </c>
       <c r="D5" t="n">
-        <v>121.8591222504766</v>
+        <v>40.631385380739</v>
       </c>
       <c r="E5" t="n">
-        <v>92.68647758675968</v>
+        <v>40.631385380739</v>
       </c>
       <c r="F5" t="n">
-        <v>48.10852568854899</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.8591222504766</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T6" t="n">
-        <v>42.79483382228227</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U6" t="n">
-        <v>42.79483382228227</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V6" t="n">
-        <v>42.79483382228227</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W6" t="n">
-        <v>42.79483382228227</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X6" t="n">
-        <v>42.79483382228227</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="R7" t="n">
-        <v>93.48491238239833</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="S7" t="n">
-        <v>93.48491238239833</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T7" t="n">
-        <v>93.48491238239833</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U7" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.70321845405519</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.10852568854899</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>134.6031257566472</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>137.2644294849704</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U9" t="n">
-        <v>137.2644294849704</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V9" t="n">
-        <v>137.2644294849704</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W9" t="n">
-        <v>137.2644294849704</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X9" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.10852568854899</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.329008585976936</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C10" t="n">
-        <v>4.329008585976936</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D10" t="n">
-        <v>4.329008585976936</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E10" t="n">
-        <v>4.329008585976936</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F10" t="n">
-        <v>4.329008585976936</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V10" t="n">
-        <v>48.90696048418764</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W10" t="n">
-        <v>4.329008585976936</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X10" t="n">
-        <v>4.329008585976936</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.329008585976936</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C11" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D11" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E11" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F11" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S11" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T11" t="n">
-        <v>137.2644294849704</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U11" t="n">
-        <v>137.2644294849704</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="V11" t="n">
-        <v>137.2644294849704</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W11" t="n">
-        <v>137.2644294849704</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X11" t="n">
-        <v>137.2644294849704</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T12" t="n">
-        <v>92.68647758675968</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U12" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V12" t="n">
-        <v>92.68647758675968</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.68647758675968</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M15" t="n">
-        <v>134.6031257566472</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N15" t="n">
-        <v>176.5286895169144</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>137.2644294849704</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T15" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U15" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V15" t="n">
-        <v>48.10852568854899</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T16" t="n">
-        <v>48.90696048418764</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U16" t="n">
-        <v>4.329008585976936</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X21" t="n">
-        <v>227.7955745279523</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="25">
@@ -6186,10 +6186,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>715.9755900009304</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6420,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>499.3853800778592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>499.3853800778592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>499.3853800778592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6645,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="D32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="E32" t="n">
-        <v>122.6530896684844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="F32" t="n">
-        <v>122.6530896684844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>26.68758491570398</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>26.68758491570398</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>26.68758491570398</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>734.955220459218</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>509.6058774651459</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>268.1467311904249</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>194.3307263188706</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>839.4297279568013</v>
       </c>
       <c r="T33" t="n">
-        <v>726.8597789024521</v>
+        <v>637.2431333155673</v>
       </c>
       <c r="U33" t="n">
-        <v>498.6361606388412</v>
+        <v>637.2431333155673</v>
       </c>
       <c r="V33" t="n">
-        <v>263.4840524070985</v>
+        <v>402.0910250838245</v>
       </c>
       <c r="W33" t="n">
-        <v>20.03527576299844</v>
+        <v>402.0910250838245</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>402.0910250838245</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>194.3307263188706</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="E35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="F35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>714.6437655913755</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>714.6437655913755</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="W35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>473.1846193166546</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>782.7608746985638</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>782.7608746985638</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>554.537256434953</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>319.3851482032102</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81530782185143</v>
+        <v>77.92600192848928</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="C38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="D38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="E38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="F38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>114.4172127583938</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="T38" t="n">
-        <v>591.4512093066566</v>
+        <v>569.3543134702931</v>
       </c>
       <c r="U38" t="n">
-        <v>591.4512093066566</v>
+        <v>327.8951671955721</v>
       </c>
       <c r="V38" t="n">
-        <v>591.4512093066566</v>
+        <v>327.8951671955721</v>
       </c>
       <c r="W38" t="n">
-        <v>348.0024326625565</v>
+        <v>327.8951671955721</v>
       </c>
       <c r="X38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
       <c r="Y38" t="n">
-        <v>348.0024326625565</v>
+        <v>231.7254730419336</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>394.2008556776262</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C39" t="n">
-        <v>394.2008556776262</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D39" t="n">
-        <v>245.2664460163749</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E39" t="n">
-        <v>245.2664460163749</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F39" t="n">
-        <v>245.2664460163749</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>626.7850715371696</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>391.6329633054269</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>150.173817030706</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y39" t="n">
-        <v>562.4161926976942</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>872.9161497238173</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="S41" t="n">
-        <v>761.6974622895962</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="T41" t="n">
-        <v>761.6974622895962</v>
+        <v>655.1681086433501</v>
       </c>
       <c r="U41" t="n">
-        <v>518.2486856454962</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="V41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.3000061367809</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>669.7322471561145</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>413.2361621345657</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>413.2361621345657</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>188.4862553738978</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>188.4862553738978</v>
       </c>
       <c r="X42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.5807722530562</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.7844730889342</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>872.9161497238173</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4036845682655</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>292.6537778075975</v>
       </c>
       <c r="U44" t="n">
-        <v>577.2332497330343</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="V44" t="n">
-        <v>577.2332497330343</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="W44" t="n">
-        <v>577.2332497330343</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="X44" t="n">
-        <v>577.2332497330343</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.7844730889342</v>
+        <v>242.5500993761129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>739.8221505407433</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>565.3691212596163</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>416.4347115983651</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>416.4347115983651</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>269.9001536252501</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>131.1693282078656</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>803.9899035216744</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>788.8401013251308</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,10 +10202,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>316.3460615231987</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>248.499138228429</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>218.2303254677482</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>365.0986521375057</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>248.499138228429</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>229.4848578288594</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>359.3640175880309</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.3570204389738</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>144.7134224918944</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,10 +22685,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22752,28 +22752,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.7942029044125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>353.049451855182</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>394.3003924720254</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="6">
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.8110783456798</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="7">
@@ -22986,25 +22986,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>63.59569076746356</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1868569772623</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V7" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>285.7325478889088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.8529234464008</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>196.1652945356643</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.28621672101858</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>133.0017155667489</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>242.3908259573624</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>196.1652945356643</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>147.8250225705301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,16 +23463,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>181.5774830098086</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S14" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>371.9273436213119</v>
       </c>
     </row>
     <row r="15">
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,19 +23700,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>183.8134170490529</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1868569772623</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23946,16 +23946,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,19 +24053,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>176.6302781386796</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24183,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>232.3962653710655</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>114.1648013839902</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>285.3113128993078</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>37.63267730698389</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>131.8554064527065</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>181.0138317948241</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>150.654241305972</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>324.9137997770587</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.460909029173898</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>156.2599988782983</v>
       </c>
       <c r="T33" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>129.7607776219856</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X36" t="n">
-        <v>142.630753465213</v>
+        <v>147.5585720353814</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>300.3445504287207</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>274.5231034663669</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>115.9967357002795</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25529,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>76.03323508418688</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>184.3736380486502</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>65.35623142633295</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>10.29817945636398</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>59.59762388653243</v>
+        <v>36.79378307260916</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>294.9288839697323</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>201.7430112606667</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0054123733237</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364636.6663211566</v>
+        <v>350035.0587549792</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364636.6663211565</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364636.6663211567</v>
+        <v>351669.2246312145</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364636.6663211564</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211565</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211565</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205639</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364133</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364133</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53798.85240803944</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="C2" t="n">
-        <v>53798.85240803944</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="D2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="G2" t="n">
         <v>53798.85240803943</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>53798.85240803943</v>
       </c>
-      <c r="F2" t="n">
-        <v>53798.85240803943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>74772.30263909959</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>74772.30263909961</v>
+      </c>
+      <c r="J2" t="n">
         <v>74772.30263909958</v>
-      </c>
-      <c r="I2" t="n">
-        <v>74772.30263909959</v>
-      </c>
-      <c r="J2" t="n">
-        <v>74772.30263909959</v>
       </c>
       <c r="K2" t="n">
         <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.47088733963</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="O2" t="n">
-        <v>74772.30263909958</v>
+        <v>72800.26970074198</v>
       </c>
       <c r="P2" t="n">
-        <v>74772.30263909961</v>
+        <v>72800.26970074199</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>6703.395469327987</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>22.21667432804715</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425572</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425572</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425572</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425572</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="G4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26447,19 +26447,19 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
@@ -26499,19 +26499,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11886.95417877329</v>
+        <v>6372.261181020235</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.751825470938</v>
+        <v>14958.21002703852</v>
       </c>
       <c r="D6" t="n">
-        <v>2902.75182547093</v>
+        <v>14468.73709170896</v>
       </c>
       <c r="E6" t="n">
-        <v>36530.35182547092</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="F6" t="n">
-        <v>36530.35182547092</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="G6" t="n">
-        <v>-6241.344142878828</v>
+        <v>45089.95201352624</v>
       </c>
       <c r="H6" t="n">
-        <v>47721.09075759347</v>
+        <v>49623.90640661336</v>
       </c>
       <c r="I6" t="n">
-        <v>47721.09075759349</v>
+        <v>6362.211014250796</v>
       </c>
       <c r="J6" t="n">
-        <v>36174.17264760261</v>
+        <v>52013.90484630191</v>
       </c>
       <c r="K6" t="n">
-        <v>47721.09075759348</v>
+        <v>58717.30031562991</v>
       </c>
       <c r="L6" t="n">
-        <v>47721.09075759348</v>
+        <v>58626.32421239694</v>
       </c>
       <c r="M6" t="n">
-        <v>47721.09075759348</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="N6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="O6" t="n">
-        <v>341.2125401296889</v>
+        <v>57862.29209750256</v>
       </c>
       <c r="P6" t="n">
-        <v>47721.0907575935</v>
+        <v>57862.29209750258</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26819,19 +26819,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330016</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330016</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330018</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330016</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37086,7 +37086,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>96.25621047821812</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>17.26614247315946</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>17.26614247315946</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
